--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chloe\Documents\GitHub\Game-Teacher-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1285553D-8762-43ED-AC69-8286207C0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B87EB-4B29-4E38-9CC7-53A6899A291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36722717-C41C-43F9-8F72-24C2463940E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="English (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="English" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,55 +37,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>question_id</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>learning_objective</t>
-  </si>
-  <si>
-    <t>question_text</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>topic_id</t>
-  </si>
-  <si>
-    <t>topic_text</t>
-  </si>
-  <si>
-    <t>Addition</t>
-  </si>
-  <si>
-    <t>Learn how to add numbers accurately</t>
-  </si>
-  <si>
-    <t>What is 1+1?</t>
-  </si>
-  <si>
-    <t>Subtraction</t>
-  </si>
-  <si>
-    <t>What is 2-1?</t>
-  </si>
-  <si>
-    <t>Learn how to subtract numbers accurately</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>questionId</t>
+  </si>
+  <si>
+    <t>questionSubject</t>
+  </si>
+  <si>
+    <t>questionTopic</t>
+  </si>
+  <si>
+    <t>questionText</t>
+  </si>
+  <si>
+    <t>questionAnsIndex</t>
+  </si>
+  <si>
+    <t>questionLearningObj</t>
+  </si>
+  <si>
+    <t>Which of the following is a verb in the past tense?</t>
+  </si>
+  <si>
+    <t>What is the correct spelling of the opposite of "hot"?</t>
+  </si>
+  <si>
+    <t>Which of the following is a synonym for the word "happy"?</t>
+  </si>
+  <si>
+    <t>Which of the following sentences is written in the past tense?</t>
+  </si>
+  <si>
+    <t>What is the plural form of the word "child"?</t>
+  </si>
+  <si>
+    <t>What is the correct form of the verb "to be" in the present tense for the pronoun "I"?</t>
+  </si>
+  <si>
+    <t>Which of the following is a preposition?</t>
+  </si>
+  <si>
+    <t>What is the correct comparative form of the adjective "big"?</t>
+  </si>
+  <si>
+    <t>Which of the following is a proper noun?</t>
+  </si>
+  <si>
+    <t>Develop an understanding of the different tenses in English and be able to identify verbs in past, present, and future tense.</t>
+  </si>
+  <si>
+    <t>What is the correct punctuation for the following sentence?
+"I love to eat pizza __ it's my favorite food."</t>
+  </si>
+  <si>
+    <t>Develop an understanding of proper nouns and be able to recognize them as specific people, places, or things.</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>option4</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Ran</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Cldo</t>
+  </si>
+  <si>
+    <t>Kohlt</t>
+  </si>
+  <si>
+    <t>Hto</t>
+  </si>
+  <si>
+    <t>Joyful</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>Anxious</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>I am going to the store</t>
+  </si>
+  <si>
+    <t>I will go to the store</t>
+  </si>
+  <si>
+    <t>I went to the store</t>
+  </si>
+  <si>
+    <t>I go to the store</t>
+  </si>
+  <si>
+    <t>Childs</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Childies</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Childers</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Are</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Quickly</t>
+  </si>
+  <si>
+    <t>Bigger</t>
+  </si>
+  <si>
+    <t>Biger</t>
+  </si>
+  <si>
+    <t>Bigest</t>
+  </si>
+  <si>
+    <t>Biggets</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,8 +265,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,49 +583,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEC79CE-98EB-4457-92E5-54B470EE8C38}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09B8D57-202D-4348-A75A-2D0C48C0D56D}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" customWidth="1"/>
+    <col min="5" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -475,34 +645,437 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2">
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFDFED-0550-4198-B7C0-1C048A4C094F}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" customWidth="1"/>
+    <col min="5" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chloe\Documents\GitHub\Game-Teacher-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B87EB-4B29-4E38-9CC7-53A6899A291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728511C-B4E1-4F6B-B2AC-5CCA95AB81D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36722717-C41C-43F9-8F72-24C2463940E3}"/>
+    <workbookView xWindow="4848" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{36722717-C41C-43F9-8F72-24C2463940E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="English (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="English" sheetId="2" r:id="rId2"/>
+    <sheet name="English" sheetId="2" r:id="rId1"/>
+    <sheet name="English (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>English</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>questionText</t>
-  </si>
-  <si>
-    <t>questionAnsIndex</t>
   </si>
   <si>
     <t>questionLearningObj</t>
@@ -224,6 +221,12 @@
   </si>
   <si>
     <t>car</t>
+  </si>
+  <si>
+    <t>questionDifficulty</t>
+  </si>
+  <si>
+    <t>questionAns</t>
   </si>
 </sst>
 </file>
@@ -583,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09B8D57-202D-4348-A75A-2D0C48C0D56D}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFDFED-0550-4198-B7C0-1C048A4C094F}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,12 +598,13 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" customWidth="1"/>
-    <col min="5" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" customWidth="1"/>
+    <col min="6" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -611,60 +615,66 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,42 +684,323 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFDFED-0550-4198-B7C0-1C048A4C094F}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09B8D57-202D-4348-A75A-2D0C48C0D56D}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="A4:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,12 +1008,13 @@
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" customWidth="1"/>
-    <col min="5" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" customWidth="1"/>
+    <col min="6" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -733,60 +1025,66 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,286 +1094,35 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chloe\Documents\GitHub\Game-Teacher-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728511C-B4E1-4F6B-B2AC-5CCA95AB81D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E8C06-308D-4683-A30C-E68DAEFFE408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{36722717-C41C-43F9-8F72-24C2463940E3}"/>
+    <workbookView xWindow="4584" yWindow="1212" windowWidth="17280" windowHeight="10392" xr2:uid="{36722717-C41C-43F9-8F72-24C2463940E3}"/>
   </bookViews>
   <sheets>
     <sheet name="English" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>English</t>
   </si>
@@ -227,6 +227,27 @@
   </si>
   <si>
     <t>questionAns</t>
+  </si>
+  <si>
+    <t>Which of the following is a verb?</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Eat</t>
   </si>
 </sst>
 </file>
@@ -587,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CFDFED-0550-4198-B7C0-1C048A4C094F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,6 +1007,76 @@
         <v>60</v>
       </c>
       <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
         <v>17</v>
       </c>
     </row>
